--- a/cmip6/models/ecmwf-ifs-hr/cmip6_ecmwf_ecmwf-ifs-hr_toplevel.xlsx
+++ b/cmip6/models/ecmwf-ifs-hr/cmip6_ecmwf_ecmwf-ifs-hr_toplevel.xlsx
@@ -40,7 +40,7 @@
     <t>ECMWF-IFS-HR</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Top Level</t>

--- a/cmip6/models/ecmwf-ifs-hr/cmip6_ecmwf_ecmwf-ifs-hr_toplevel.xlsx
+++ b/cmip6/models/ecmwf-ifs-hr/cmip6_ecmwf_ecmwf-ifs-hr_toplevel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git_projects\ES-DOC\ecmwf\cmip6\models\ecmwf-ifs-hr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Radiative Forcings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="437">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1271,12 +1276,70 @@
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.other.solar.additional_information</t>
+  </si>
+  <si>
+    <t>ROBERTS-CD</t>
+  </si>
+  <si>
+    <t>Point of Contact</t>
+  </si>
+  <si>
+    <t>ROBERTS_2018</t>
+  </si>
+  <si>
+    <t>ECMWF-IFS</t>
+  </si>
+  <si>
+    <t>IFS,NEMO,LIM,ocean,atmosphere,sea-ice,land,waves</t>
+  </si>
+  <si>
+    <t>ECMWF-IFS is a global Earth system model that includes dynamic representations of the atmosphere, sea-ice, ocean, land surface, and ocean waves. The CMIP6/HighResMIP version of ECMWF-IFS is derived from IFS cycle 43r1 that was implemented operationally at ECMWF in November 2016. The atmosphere component of ECMWF-IFS is based on a hydrostatic, semi-implicit, semi-Lagrangian dynamical core that utilizes the spectral transform method to alternate between between spectral and grid-point representations each time-step.  The vertical discretization is a hybrid sigma-pressure coordinate with 91 levels extending to 0.01 hPa. Advection and parameterized processes are calculated in grid-point space on a cubic octahedral reduced Gaussian (Tco) grid, which is defined such that the shortest wavelengths in spectral space are represented by 4 model grid points. The land surface is represented by the 4-layer HTESSEL model and the ocean-wave model is based on an updated version of WAM.  The ocean-sea-ice system is represented by version 3.4 of the Nucleus for European Models of the Ocean (NEMO) and version 2 of the Louvain-la-Neuve Sea-Ice Model (LIM2).</t>
+  </si>
+  <si>
+    <t>No flux corrections are applied in this model.</t>
+  </si>
+  <si>
+    <t>ECMWF perforce repository</t>
+  </si>
+  <si>
+    <t>ECMWF-IFS 43r1</t>
+  </si>
+  <si>
+    <t>Fortran</t>
+  </si>
+  <si>
+    <t>Coupling between sub-models is achieved by hourly exchange of energy, mass, momentum, and turbulent kinetic energy fluxes every hour using the sequential single-executable strategy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main tuning target was global surface energy balance in atmosphere-only simulations over the period 2005-2013. Simulations were considered adequate if the global average heat flux into the ocean (relative to Earth's surface area) was within the observed range of 0.2-1.0 W/m2. Tuning was performed by modifying the cloud properties by reducing the autoconversion threshold for liquid precipitation over the ocean. 
+</t>
+  </si>
+  <si>
+    <t>Global  energy balance</t>
+  </si>
+  <si>
+    <t>The global energy balance was tuned in atmosphere-only integrations. Energy balance was not tuned further in coupled mode.</t>
+  </si>
+  <si>
+    <t>Moisture is not perfectly conserved in the atmosphere, mainly as a result of the semi-Lagrangian advection scheme.</t>
+  </si>
+  <si>
+    <t>Runoff from land to ocean is prescribed using an observation based climatology.</t>
+  </si>
+  <si>
+    <t>Iceberg calving is not modeled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiative forcings follow CMIP6 recommendations.  Greenhouse gas concentrations of CO2, CH4, N2O, and CFC12 are explicitly prescribed and the combined effect of other greenhouse gas species is included as an effective concentration of CFC11. Time-varying historical ozone concentrations are specified using monthly three-dimensional ozone distributions. Solar forcing is applied as annual means of total solar irradiance. Tropospheric aerosol forcing is specified using version 2 of the Max-Plank Institute Aerosol Climatology Simple Plume model (MACv2-SP). Volcanic forcing is specified as a total stratospheric aerosol optical depth (SAOD) that varies with time and latitude. SAOD is derived from an offline vertical integration of extinction coefficients at 550 nm from a simplified version of the CMIP6 stratospheric aerosol data set. </t>
+  </si>
+  <si>
+    <t>Heat is not perfectly conserved in the atmosphere, mainly as a result of the semi-Lagrangian advection scheme.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1473,6 +1536,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1519,7 +1590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1551,9 +1622,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1585,6 +1674,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1760,10 +1867,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1772,12 +1879,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1785,7 +1892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,7 +1900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1801,7 +1908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1817,12 +1924,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1830,7 +1937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1838,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1846,7 +1953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1854,13 +1961,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1876,10 +1983,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1888,7 +1997,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1899,7 +2008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1915,7 +2024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1923,11 +2032,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1943,7 +2056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1951,9 +2064,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1973,10 +2090,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH224"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2019,7 +2138,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -2046,7 +2167,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -2072,8 +2195,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -2112,8 +2237,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="178" customHeight="1">
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
@@ -2148,7 +2275,9 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11">
+        <v>2016</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
@@ -2218,7 +2347,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="178" customHeight="1">
+    <row r="46" spans="1:3" ht="177.95" customHeight="1">
       <c r="B46" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -2276,7 +2405,9 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
+      <c r="B58" s="11" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
@@ -2298,7 +2429,9 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
@@ -2325,7 +2458,9 @@
       </c>
     </row>
     <row r="67" spans="1:34" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="69" spans="1:34" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
@@ -2347,7 +2482,9 @@
       </c>
     </row>
     <row r="71" spans="1:34" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="73" spans="1:34" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
@@ -2369,7 +2506,9 @@
       </c>
     </row>
     <row r="75" spans="1:34" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="AA75" s="6" t="s">
         <v>104</v>
       </c>
@@ -2448,7 +2587,9 @@
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
+      <c r="B87" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="AA87" s="6" t="s">
         <v>123</v>
       </c>
@@ -2482,7 +2623,9 @@
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
+      <c r="B91" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="12" t="s">
@@ -2521,8 +2664,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="178" customHeight="1">
-      <c r="B100" s="11"/>
+    <row r="100" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B100" s="11" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
@@ -2549,7 +2694,9 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
@@ -2625,7 +2772,9 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11"/>
+      <c r="B119" s="11" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
@@ -2686,8 +2835,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="178" customHeight="1">
-      <c r="B132" s="11"/>
+    <row r="132" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B132" s="11" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
@@ -2713,7 +2864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="178" customHeight="1">
+    <row r="137" spans="1:3" ht="177.95" customHeight="1">
       <c r="B137" s="11"/>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -2740,7 +2891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="178" customHeight="1">
+    <row r="142" spans="1:3" ht="177.95" customHeight="1">
       <c r="B142" s="11"/>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -2767,7 +2918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="178" customHeight="1">
+    <row r="147" spans="1:3" ht="177.95" customHeight="1">
       <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -2794,7 +2945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="178" customHeight="1">
+    <row r="152" spans="1:3" ht="177.95" customHeight="1">
       <c r="B152" s="11"/>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
@@ -2821,7 +2972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="178" customHeight="1">
+    <row r="157" spans="1:3" ht="177.95" customHeight="1">
       <c r="B157" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
@@ -2861,8 +3012,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="178" customHeight="1">
-      <c r="B166" s="11"/>
+    <row r="166" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B166" s="11" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
@@ -2888,7 +3041,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="178" customHeight="1">
+    <row r="171" spans="1:3" ht="177.95" customHeight="1">
       <c r="B171" s="11"/>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -2915,7 +3068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="178" customHeight="1">
+    <row r="176" spans="1:3" ht="177.95" customHeight="1">
       <c r="B176" s="11"/>
     </row>
     <row r="178" spans="1:3" ht="24" customHeight="1">
@@ -2942,7 +3095,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="178" customHeight="1">
+    <row r="181" spans="1:3" ht="177.95" customHeight="1">
       <c r="B181" s="11"/>
     </row>
     <row r="183" spans="1:3" ht="24" customHeight="1">
@@ -2969,7 +3122,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="178" customHeight="1">
+    <row r="186" spans="1:3" ht="177.95" customHeight="1">
       <c r="B186" s="11"/>
     </row>
     <row r="188" spans="1:3" ht="24" customHeight="1">
@@ -2996,8 +3149,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="178" customHeight="1">
-      <c r="B191" s="11"/>
+    <row r="191" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B191" s="11" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="A193" s="9" t="s">
@@ -3023,8 +3178,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="178" customHeight="1">
-      <c r="B196" s="11"/>
+    <row r="196" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B196" s="11" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
       <c r="A198" s="9" t="s">
@@ -3050,7 +3207,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="178" customHeight="1">
+    <row r="201" spans="1:3" ht="177.95" customHeight="1">
       <c r="B201" s="11"/>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
@@ -3077,7 +3234,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="178" customHeight="1">
+    <row r="206" spans="1:3" ht="177.95" customHeight="1">
       <c r="B206" s="11"/>
     </row>
     <row r="209" spans="1:3" ht="24" customHeight="1">
@@ -3117,7 +3274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="178" customHeight="1">
+    <row r="215" spans="1:3" ht="177.95" customHeight="1">
       <c r="B215" s="11"/>
     </row>
     <row r="218" spans="1:3" ht="24" customHeight="1">
@@ -3157,7 +3314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="178" customHeight="1">
+    <row r="224" spans="1:3" ht="177.95" customHeight="1">
       <c r="B224" s="11"/>
     </row>
   </sheetData>
@@ -3180,10 +3337,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG299"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3226,7 +3385,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3252,8 +3413,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -3340,7 +3503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="178" customHeight="1">
+    <row r="25" spans="1:33" ht="177.95" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
@@ -3428,7 +3591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="178" customHeight="1">
+    <row r="39" spans="1:33" ht="177.95" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
@@ -3516,7 +3679,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="178" customHeight="1">
+    <row r="53" spans="1:33" ht="177.95" customHeight="1">
       <c r="B53" s="11"/>
     </row>
     <row r="56" spans="1:33" ht="24" customHeight="1">
@@ -3604,7 +3767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="178" customHeight="1">
+    <row r="67" spans="1:33" ht="177.95" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="70" spans="1:33" ht="24" customHeight="1">
@@ -3692,7 +3855,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="178" customHeight="1">
+    <row r="81" spans="1:33" ht="177.95" customHeight="1">
       <c r="B81" s="11"/>
     </row>
     <row r="84" spans="1:33" ht="24" customHeight="1">
@@ -3817,7 +3980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="178" customHeight="1">
+    <row r="99" spans="1:33" ht="177.95" customHeight="1">
       <c r="B99" s="11"/>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
@@ -3905,7 +4068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="178" customHeight="1">
+    <row r="113" spans="1:33" ht="177.95" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="116" spans="1:33" ht="24" customHeight="1">
@@ -3993,7 +4156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="178" customHeight="1">
+    <row r="127" spans="1:33" ht="177.95" customHeight="1">
       <c r="B127" s="11"/>
     </row>
     <row r="130" spans="1:33" ht="24" customHeight="1">
@@ -4081,7 +4244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="178" customHeight="1">
+    <row r="141" spans="1:33" ht="177.95" customHeight="1">
       <c r="B141" s="11"/>
     </row>
     <row r="144" spans="1:33" ht="24" customHeight="1">
@@ -4169,7 +4332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="178" customHeight="1">
+    <row r="155" spans="1:33" ht="177.95" customHeight="1">
       <c r="B155" s="11"/>
     </row>
     <row r="158" spans="1:33" ht="24" customHeight="1">
@@ -4279,7 +4442,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:33" ht="178" customHeight="1">
+    <row r="173" spans="1:33" ht="177.95" customHeight="1">
       <c r="B173" s="11"/>
     </row>
     <row r="176" spans="1:33" ht="24" customHeight="1">
@@ -4411,7 +4574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="195" spans="1:33" ht="178" customHeight="1">
+    <row r="195" spans="1:33" ht="177.95" customHeight="1">
       <c r="B195" s="11"/>
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
@@ -4499,7 +4662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="1:33" ht="178" customHeight="1">
+    <row r="209" spans="1:33" ht="177.95" customHeight="1">
       <c r="B209" s="11"/>
     </row>
     <row r="212" spans="1:33" ht="24" customHeight="1">
@@ -4667,7 +4830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="231" spans="1:33" ht="178" customHeight="1">
+    <row r="231" spans="1:33" ht="177.95" customHeight="1">
       <c r="B231" s="11"/>
     </row>
     <row r="234" spans="1:33" ht="24" customHeight="1">
@@ -4835,7 +4998,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="253" spans="1:32" ht="178" customHeight="1">
+    <row r="253" spans="1:32" ht="177.95" customHeight="1">
       <c r="B253" s="11"/>
     </row>
     <row r="256" spans="1:32" ht="24" customHeight="1">
@@ -4923,7 +5086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="267" spans="1:33" ht="178" customHeight="1">
+    <row r="267" spans="1:33" ht="177.95" customHeight="1">
       <c r="B267" s="11"/>
     </row>
     <row r="270" spans="1:33" ht="24" customHeight="1">
@@ -5033,7 +5196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="285" spans="1:33" ht="178" customHeight="1">
+    <row r="285" spans="1:33" ht="177.95" customHeight="1">
       <c r="B285" s="11"/>
     </row>
     <row r="288" spans="1:33" ht="24" customHeight="1">
@@ -5118,7 +5281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="299" spans="1:32" ht="178" customHeight="1">
+    <row r="299" spans="1:32" ht="177.95" customHeight="1">
       <c r="B299" s="11"/>
     </row>
   </sheetData>
@@ -5206,5 +5369,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cmip6/models/ecmwf-ifs-hr/cmip6_ecmwf_ecmwf-ifs-hr_toplevel.xlsx
+++ b/cmip6/models/ecmwf-ifs-hr/cmip6_ecmwf_ecmwf-ifs-hr_toplevel.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git_projects\ES-DOC\ecmwf\cmip6\models\ecmwf-ifs-hr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Radiative Forcings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="436">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -144,6 +139,9 @@
     <t>cmip6.toplevel.key_properties.name</t>
   </si>
   <si>
+    <t>ECMWF-IFS</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -159,6 +157,9 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
+    <t>IFS,NEMO,LIM,ocean,atmosphere,sea-ice,land,waves</t>
+  </si>
+  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -174,6 +175,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>ECMWF-IFS is a global Earth system model that includes dynamic representations of the atmosphere, sea-ice, ocean, land surface, and ocean waves. The CMIP6/HighResMIP version of ECMWF-IFS is derived from IFS cycle 43r1 that was implemented operationally at ECMWF in November 2016. The atmosphere component of ECMWF-IFS is based on a hydrostatic, semi-implicit, semi-Lagrangian dynamical core that utilizes the spectral transform method to alternate between between spectral and grid-point representations each time-step.  The vertical discretization is a hybrid sigma-pressure coordinate with 91 levels extending to 0.01 hPa. Advection and parameterized processes are calculated in grid-point space on a cubic octahedral reduced Gaussian (Tco) grid, which is defined such that the shortest wavelengths in spectral space are represented by 4 model grid points. The land surface is represented by the 4-layer HTESSEL model and the ocean-wave model is based on an updated version of WAM.  The ocean-sea-ice system is represented by version 3.4 of the Nucleus for European Models of the Ocean (NEMO) and version 2 of the Louvain-la-Neuve Sea-Ice Model (LIM2).</t>
+  </si>
+  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -195,6 +199,9 @@
     <t>cmip6.toplevel.key_properties.flux_correction.details</t>
   </si>
   <si>
+    <t>No flux corrections are applied in this model.</t>
+  </si>
+  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -285,6 +292,9 @@
     <t>cmip6.toplevel.key_properties.software_properties.repository</t>
   </si>
   <si>
+    <t>ECMWF perforce repository</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
@@ -297,6 +307,9 @@
     <t>cmip6.toplevel.key_properties.software_properties.code_version</t>
   </si>
   <si>
+    <t>ECMWF-IFS 43r1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.3 </t>
   </si>
   <si>
@@ -309,6 +322,9 @@
     <t>cmip6.toplevel.key_properties.software_properties.code_languages</t>
   </si>
   <si>
+    <t>Fortran</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.4 </t>
   </si>
   <si>
@@ -321,6 +337,9 @@
     <t>cmip6.toplevel.key_properties.software_properties.components_structure</t>
   </si>
   <si>
+    <t>Coupling between sub-models is achieved by hourly exchange of energy, mass, momentum, and turbulent kinetic energy fluxes every hour using the sequential single-executable strategy.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.5 </t>
   </si>
   <si>
@@ -336,25 +355,25 @@
     <t>cmip6.toplevel.key_properties.software_properties.coupler</t>
   </si>
   <si>
-    <t>OASIS</t>
-  </si>
-  <si>
-    <t>OASIS3-MCT</t>
-  </si>
-  <si>
-    <t>ESMF</t>
-  </si>
-  <si>
-    <t>NUOPC</t>
-  </si>
-  <si>
-    <t>Bespoke</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>Bespoke: Customised coupler developed for this model</t>
+  </si>
+  <si>
+    <t>OASIS: The OASIS coupler - prior to OASIS-MCT</t>
+  </si>
+  <si>
+    <t>OASIS3-MCT: The MCT variant of the OASIS coupler</t>
+  </si>
+  <si>
+    <t>ESMF: Vanilla Earth System Modelling Framework</t>
+  </si>
+  <si>
+    <t>NUOPC: National Unified Operational Prediction Capability variant of ESMF</t>
+  </si>
+  <si>
+    <t>Unknown: It is not known what/if-a coupler is used</t>
+  </si>
+  <si>
+    <t>None: No coupler is used</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -433,913 +452,886 @@
   </si>
   <si>
     <t>cmip6.toplevel.key_properties.tuning_applied.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.2 </t>
-  </si>
-  <si>
-    <t>Global Mean Metrics Used</t>
-  </si>
-  <si>
-    <t>List set of metrics/diagnostics of the global mean state used in tuning model</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.tuning_applied.global_mean_metrics_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.3 </t>
-  </si>
-  <si>
-    <t>Regional Metrics Used</t>
-  </si>
-  <si>
-    <t>List of regional metrics/diagnostics of mean state (e.g THC, AABW, regional means etc) used in tuning model/component</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.tuning_applied.regional_metrics_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.4 </t>
-  </si>
-  <si>
-    <t>Trend Metrics Used</t>
-  </si>
-  <si>
-    <t>List observed trend metrics/diagnostics used in tuning model/component (such as 20th century)</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.tuning_applied.trend_metrics_used</t>
-  </si>
-  <si>
-    <t>1.6.1.5 *</t>
-  </si>
-  <si>
-    <t>Energy Balance</t>
-  </si>
-  <si>
-    <t>Describe how energy balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.tuning_applied.energy_balance</t>
-  </si>
-  <si>
-    <t>1.6.1.6 *</t>
-  </si>
-  <si>
-    <t>Fresh Water Balance</t>
-  </si>
-  <si>
-    <t>Describe how fresh_water balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.tuning_applied.fresh_water_balance</t>
-  </si>
-  <si>
-    <t>1.6.2</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation --&gt; Heat</t>
-  </si>
-  <si>
-    <t>Global heat convervation properties of the model</t>
-  </si>
-  <si>
-    <t>1.6.2.1 *</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved globally</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.2.2 </t>
-  </si>
-  <si>
-    <t>Atmos Ocean Interface</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved at the atmosphere/ocean coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_ocean_interface</t>
-  </si>
-  <si>
-    <t>1.6.2.3 *</t>
-  </si>
-  <si>
-    <t>Atmos Land Interface</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved at the atmosphere/land coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_land_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.2.4 </t>
-  </si>
-  <si>
-    <t>Atmos Sea-ice Interface</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved at the atmosphere/sea-ice coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_sea-ice_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.2.5 </t>
-  </si>
-  <si>
-    <t>Ocean Seaice Interface</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved at the ocean/sea-ice coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.ocean_seaice_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.2.6 </t>
-  </si>
-  <si>
-    <t>Land Ocean Interface</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved at the land/ocean coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.land_ocean_interface</t>
-  </si>
-  <si>
-    <t>1.6.3</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation --&gt; Fresh Water</t>
-  </si>
-  <si>
-    <t>Global fresh water convervation properties of the model</t>
-  </si>
-  <si>
-    <t>1.6.3.1 *</t>
-  </si>
-  <si>
-    <t>Describe if/how fresh_water is conserved globally</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how fresh_water is conserved at the atmosphere/ocean coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_ocean_interface</t>
-  </si>
-  <si>
-    <t>1.6.3.3 *</t>
-  </si>
-  <si>
-    <t>Describe if/how fresh water is conserved at the atmosphere/land coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_land_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.4 </t>
-  </si>
-  <si>
-    <t>Describe if/how fresh water is conserved at the atmosphere/sea-ice coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_sea-ice_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.5 </t>
-  </si>
-  <si>
-    <t>Describe if/how fresh water is conserved at the ocean/sea-ice coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.ocean_seaice_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.6 </t>
-  </si>
-  <si>
-    <t>Runoff</t>
-  </si>
-  <si>
-    <t>Describe how runoff is distributed and conserved</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.runoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.7 </t>
-  </si>
-  <si>
-    <t>Iceberg Calving</t>
-  </si>
-  <si>
-    <t>Describe if/how iceberg calving is modeled and conserved</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.iceberg_calving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.8 </t>
-  </si>
-  <si>
-    <t>Endoreic Basins</t>
-  </si>
-  <si>
-    <t>Describe if/how endoreic basins (no ocean access) are treated</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.endoreic_basins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.9 </t>
-  </si>
-  <si>
-    <t>Snow Accumulation</t>
-  </si>
-  <si>
-    <t>Describe how snow accumulation over land and over sea-ice is treated</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.snow_accumulation</t>
-  </si>
-  <si>
-    <t>1.6.4</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation --&gt; Salt</t>
-  </si>
-  <si>
-    <t>Global salt convervation properties of the model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.4.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how salt is conserved at the ocean/sea-ice coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.salt.ocean_seaice_interface</t>
-  </si>
-  <si>
-    <t>1.6.5</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation --&gt; Momentum</t>
-  </si>
-  <si>
-    <t>Global momentum convervation properties of the model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.5.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how momentum is conserved in the model</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.momentum.details</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>Radiative Forcings</t>
-  </si>
-  <si>
-    <t>Radiative forcings of the model for historical and scenario (aka Table 12.1 IPCC AR5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the radiative forcings in toplevel model.</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of radiative forcings of the model for historical and scenario (aka table 12.1 ipcc ar5) in toplevel model.</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.overview</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CO2</t>
-  </si>
-  <si>
-    <t>Carbon dioxide forcing</t>
-  </si>
-  <si>
-    <t>2.1.2.1 *</t>
-  </si>
-  <si>
-    <t>Provision</t>
-  </si>
-  <si>
-    <t>How this forcing agent is provided (e.g. via concentrations, emission precursors, prognostically derived, etc.)</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.2.2 </t>
-  </si>
-  <si>
-    <t>Additional Information</t>
-  </si>
-  <si>
-    <t>Additional information relating to the provision and implementation of this forcing agent (e.g. citations, use of non-standard datasets, explaining how multiple provisions are used, etc.).</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.3</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CH4</t>
-  </si>
-  <si>
-    <t>Methane forcing</t>
-  </si>
-  <si>
-    <t>2.1.3.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CH4.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.3.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CH4.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.4</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; N2O</t>
-  </si>
-  <si>
-    <t>Nitrous oxide forcing</t>
-  </si>
-  <si>
-    <t>2.1.4.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.N2O.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.4.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.N2O.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.5</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; Tropospheric O3</t>
-  </si>
-  <si>
-    <t>Troposheric ozone forcing</t>
-  </si>
-  <si>
-    <t>2.1.5.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.5.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.6</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; Stratospheric O3</t>
-  </si>
-  <si>
-    <t>Stratospheric ozone forcing</t>
-  </si>
-  <si>
-    <t>2.1.6.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.6.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.7</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CFC</t>
-  </si>
-  <si>
-    <t>Ozone-depleting and non-ozone-depleting fluorinated gases forcing</t>
-  </si>
-  <si>
-    <t>2.1.7.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.provision</t>
-  </si>
-  <si>
-    <t>2.1.7.2 *</t>
-  </si>
-  <si>
-    <t>Equivalence Concentration</t>
-  </si>
-  <si>
-    <t>Details of any equivalence concentrations used</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
-  </si>
-  <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>Option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.7.3 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.8</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; SO4</t>
-  </si>
-  <si>
-    <t>SO4 aerosol forcing</t>
-  </si>
-  <si>
-    <t>2.1.8.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.SO4.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.8.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.SO4.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.9</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Black Carbon</t>
-  </si>
-  <si>
-    <t>Black carbon aerosol forcing</t>
-  </si>
-  <si>
-    <t>2.1.9.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.black_carbon.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.9.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.black_carbon.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.10</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Organic Carbon</t>
-  </si>
-  <si>
-    <t>Organic carbon aerosol forcing</t>
-  </si>
-  <si>
-    <t>2.1.10.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.organic_carbon.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.10.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.organic_carbon.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.11</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Nitrate</t>
-  </si>
-  <si>
-    <t>Nitrate forcing</t>
-  </si>
-  <si>
-    <t>2.1.11.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.nitrate.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.11.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.nitrate.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.12</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Cloud Albedo Effect</t>
-  </si>
-  <si>
-    <t>Cloud albedo effect forcing (RFaci)</t>
-  </si>
-  <si>
-    <t>2.1.12.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.provision</t>
-  </si>
-  <si>
-    <t>2.1.12.2 *</t>
-  </si>
-  <si>
-    <t>Aerosol Effect On Ice Clouds</t>
-  </si>
-  <si>
-    <t>Radiative effects of aerosols on ice clouds are represented?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.aerosol_effect_on_ice_clouds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.12.3 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.13</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Cloud Lifetime Effect</t>
-  </si>
-  <si>
-    <t>Cloud lifetime effect forcing (ERFaci)</t>
-  </si>
-  <si>
-    <t>2.1.13.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.provision</t>
-  </si>
-  <si>
-    <t>2.1.13.2 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.aerosol_effect_on_ice_clouds</t>
-  </si>
-  <si>
-    <t>2.1.13.3 *</t>
-  </si>
-  <si>
-    <t>RFaci From Sulfate Only</t>
-  </si>
-  <si>
-    <t>Radiative forcing from aerosol cloud interactions from sulfate aerosol only?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.RFaci_from_sulfate_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.13.4 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.14</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Dust</t>
-  </si>
-  <si>
-    <t>Dust forcing</t>
-  </si>
-  <si>
-    <t>2.1.14.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.dust.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.14.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.dust.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.15</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Tropospheric Volcanic</t>
-  </si>
-  <si>
-    <t>Tropospheric volcanic forcing</t>
-  </si>
-  <si>
-    <t>2.1.15.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.provision</t>
-  </si>
-  <si>
-    <t>2.1.15.2 *</t>
-  </si>
-  <si>
-    <t>Historical Explosive Volcanic Aerosol Implementation</t>
-  </si>
-  <si>
-    <t>How explosive volcanic aerosol is implemented in historical simulations</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
-  </si>
-  <si>
-    <t>Type A</t>
-  </si>
-  <si>
-    <t>Type B</t>
-  </si>
-  <si>
-    <t>Type C</t>
-  </si>
-  <si>
-    <t>Type D</t>
-  </si>
-  <si>
-    <t>Type E</t>
-  </si>
-  <si>
-    <t>2.1.15.3 *</t>
-  </si>
-  <si>
-    <t>Future Explosive Volcanic Aerosol Implementation</t>
-  </si>
-  <si>
-    <t>How explosive volcanic aerosol is implemented in future simulations</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.15.4 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.16</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Stratospheric Volcanic</t>
-  </si>
-  <si>
-    <t>Stratospheric volcanic forcing</t>
-  </si>
-  <si>
-    <t>2.1.16.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.provision</t>
-  </si>
-  <si>
-    <t>2.1.16.2 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
-  </si>
-  <si>
-    <t>2.1.16.3 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.16.4 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.17</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Sea Salt</t>
-  </si>
-  <si>
-    <t>Sea salt forcing</t>
-  </si>
-  <si>
-    <t>2.1.17.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.17.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.18</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Other --&gt; Land Use</t>
-  </si>
-  <si>
-    <t>Land use forcing</t>
-  </si>
-  <si>
-    <t>2.1.18.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.other.land_use.provision</t>
-  </si>
-  <si>
-    <t>2.1.18.2 *</t>
-  </si>
-  <si>
-    <t>Crop Change Only</t>
-  </si>
-  <si>
-    <t>Land use change represented via crop change only?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.other.land_use.crop_change_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.18.3 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.other.land_use.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.19</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Other --&gt; Solar</t>
-  </si>
-  <si>
-    <t>Solar forcing</t>
-  </si>
-  <si>
-    <t>2.1.19.1 *</t>
-  </si>
-  <si>
-    <t>How solar forcing is provided</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.other.solar.provision</t>
-  </si>
-  <si>
-    <t>Irradiance</t>
-  </si>
-  <si>
-    <t>Proton</t>
-  </si>
-  <si>
-    <t>Electron</t>
-  </si>
-  <si>
-    <t>Cosmic ray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.19.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.other.solar.additional_information</t>
-  </si>
-  <si>
-    <t>ROBERTS-CD</t>
-  </si>
-  <si>
-    <t>Point of Contact</t>
-  </si>
-  <si>
-    <t>ROBERTS_2018</t>
-  </si>
-  <si>
-    <t>ECMWF-IFS</t>
-  </si>
-  <si>
-    <t>IFS,NEMO,LIM,ocean,atmosphere,sea-ice,land,waves</t>
-  </si>
-  <si>
-    <t>ECMWF-IFS is a global Earth system model that includes dynamic representations of the atmosphere, sea-ice, ocean, land surface, and ocean waves. The CMIP6/HighResMIP version of ECMWF-IFS is derived from IFS cycle 43r1 that was implemented operationally at ECMWF in November 2016. The atmosphere component of ECMWF-IFS is based on a hydrostatic, semi-implicit, semi-Lagrangian dynamical core that utilizes the spectral transform method to alternate between between spectral and grid-point representations each time-step.  The vertical discretization is a hybrid sigma-pressure coordinate with 91 levels extending to 0.01 hPa. Advection and parameterized processes are calculated in grid-point space on a cubic octahedral reduced Gaussian (Tco) grid, which is defined such that the shortest wavelengths in spectral space are represented by 4 model grid points. The land surface is represented by the 4-layer HTESSEL model and the ocean-wave model is based on an updated version of WAM.  The ocean-sea-ice system is represented by version 3.4 of the Nucleus for European Models of the Ocean (NEMO) and version 2 of the Louvain-la-Neuve Sea-Ice Model (LIM2).</t>
-  </si>
-  <si>
-    <t>No flux corrections are applied in this model.</t>
-  </si>
-  <si>
-    <t>ECMWF perforce repository</t>
-  </si>
-  <si>
-    <t>ECMWF-IFS 43r1</t>
-  </si>
-  <si>
-    <t>Fortran</t>
-  </si>
-  <si>
-    <t>Coupling between sub-models is achieved by hourly exchange of energy, mass, momentum, and turbulent kinetic energy fluxes every hour using the sequential single-executable strategy.</t>
   </si>
   <si>
     <t xml:space="preserve">The main tuning target was global surface energy balance in atmosphere-only simulations over the period 2005-2013. Simulations were considered adequate if the global average heat flux into the ocean (relative to Earth's surface area) was within the observed range of 0.2-1.0 W/m2. Tuning was performed by modifying the cloud properties by reducing the autoconversion threshold for liquid precipitation over the ocean. 
 </t>
   </si>
   <si>
+    <t xml:space="preserve">1.6.1.2 </t>
+  </si>
+  <si>
+    <t>Global Mean Metrics Used</t>
+  </si>
+  <si>
+    <t>List set of metrics/diagnostics of the global mean state used in tuning model</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.tuning_applied.global_mean_metrics_used</t>
+  </si>
+  <si>
     <t>Global  energy balance</t>
   </si>
   <si>
+    <t xml:space="preserve">1.6.1.3 </t>
+  </si>
+  <si>
+    <t>Regional Metrics Used</t>
+  </si>
+  <si>
+    <t>List of regional metrics/diagnostics of mean state (e.g THC, AABW, regional means etc) used in tuning model/component</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.tuning_applied.regional_metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.4 </t>
+  </si>
+  <si>
+    <t>Trend Metrics Used</t>
+  </si>
+  <si>
+    <t>List observed trend metrics/diagnostics used in tuning model/component (such as 20th century)</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.tuning_applied.trend_metrics_used</t>
+  </si>
+  <si>
+    <t>1.6.1.5 *</t>
+  </si>
+  <si>
+    <t>Energy Balance</t>
+  </si>
+  <si>
+    <t>Describe how energy balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.tuning_applied.energy_balance</t>
+  </si>
+  <si>
     <t>The global energy balance was tuned in atmosphere-only integrations. Energy balance was not tuned further in coupled mode.</t>
   </si>
   <si>
+    <t>1.6.1.6 *</t>
+  </si>
+  <si>
+    <t>Fresh Water Balance</t>
+  </si>
+  <si>
+    <t>Describe how fresh_water balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.tuning_applied.fresh_water_balance</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation --&gt; Heat</t>
+  </si>
+  <si>
+    <t>Global heat convervation properties of the model</t>
+  </si>
+  <si>
+    <t>1.6.2.1 *</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved globally</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.global</t>
+  </si>
+  <si>
+    <t>Heat is not perfectly conserved in the atmosphere, mainly as a result of the semi-Lagrangian advection scheme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.2.2 </t>
+  </si>
+  <si>
+    <t>Atmos Ocean Interface</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved at the atmosphere/ocean coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_ocean_interface</t>
+  </si>
+  <si>
+    <t>1.6.2.3 *</t>
+  </si>
+  <si>
+    <t>Atmos Land Interface</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved at the atmosphere/land coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_land_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.2.4 </t>
+  </si>
+  <si>
+    <t>Atmos Sea-ice Interface</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved at the atmosphere/sea-ice coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_sea-ice_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.2.5 </t>
+  </si>
+  <si>
+    <t>Ocean Seaice Interface</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved at the ocean/sea-ice coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.ocean_seaice_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.2.6 </t>
+  </si>
+  <si>
+    <t>Land Ocean Interface</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved at the land/ocean coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.land_ocean_interface</t>
+  </si>
+  <si>
+    <t>1.6.3</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation --&gt; Fresh Water</t>
+  </si>
+  <si>
+    <t>Global fresh water convervation properties of the model</t>
+  </si>
+  <si>
+    <t>1.6.3.1 *</t>
+  </si>
+  <si>
+    <t>Describe if/how fresh_water is conserved globally</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.global</t>
+  </si>
+  <si>
     <t>Moisture is not perfectly conserved in the atmosphere, mainly as a result of the semi-Lagrangian advection scheme.</t>
   </si>
   <si>
+    <t xml:space="preserve">1.6.3.2 </t>
+  </si>
+  <si>
+    <t>Describe if/how fresh_water is conserved at the atmosphere/ocean coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_ocean_interface</t>
+  </si>
+  <si>
+    <t>1.6.3.3 *</t>
+  </si>
+  <si>
+    <t>Describe if/how fresh water is conserved at the atmosphere/land coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_land_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.3.4 </t>
+  </si>
+  <si>
+    <t>Describe if/how fresh water is conserved at the atmosphere/sea-ice coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_sea-ice_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.3.5 </t>
+  </si>
+  <si>
+    <t>Describe if/how fresh water is conserved at the ocean/sea-ice coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.ocean_seaice_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.3.6 </t>
+  </si>
+  <si>
+    <t>Runoff</t>
+  </si>
+  <si>
+    <t>Describe how runoff is distributed and conserved</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.runoff</t>
+  </si>
+  <si>
     <t>Runoff from land to ocean is prescribed using an observation based climatology.</t>
   </si>
   <si>
+    <t xml:space="preserve">1.6.3.7 </t>
+  </si>
+  <si>
+    <t>Iceberg Calving</t>
+  </si>
+  <si>
+    <t>Describe if/how iceberg calving is modeled and conserved</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.iceberg_calving</t>
+  </si>
+  <si>
     <t>Iceberg calving is not modeled.</t>
   </si>
   <si>
+    <t xml:space="preserve">1.6.3.8 </t>
+  </si>
+  <si>
+    <t>Endoreic Basins</t>
+  </si>
+  <si>
+    <t>Describe if/how endoreic basins (no ocean access) are treated</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.endoreic_basins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.3.9 </t>
+  </si>
+  <si>
+    <t>Snow Accumulation</t>
+  </si>
+  <si>
+    <t>Describe how snow accumulation over land and over sea-ice is treated</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.snow_accumulation</t>
+  </si>
+  <si>
+    <t>1.6.4</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation --&gt; Salt</t>
+  </si>
+  <si>
+    <t>Global salt convervation properties of the model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.4.1 </t>
+  </si>
+  <si>
+    <t>Describe if/how salt is conserved at the ocean/sea-ice coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.salt.ocean_seaice_interface</t>
+  </si>
+  <si>
+    <t>1.6.5</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation --&gt; Momentum</t>
+  </si>
+  <si>
+    <t>Global momentum convervation properties of the model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.5.1 </t>
+  </si>
+  <si>
+    <t>Describe if/how momentum is conserved in the model</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.momentum.details</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Radiative Forcings</t>
+  </si>
+  <si>
+    <t>Radiative forcings of the model for historical and scenario (aka Table 12.1 IPCC AR5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the radiative forcings in toplevel model.</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of radiative forcings of the model for historical and scenario (aka table 12.1 ipcc ar5) in toplevel model.</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.overview</t>
+  </si>
+  <si>
     <t xml:space="preserve">Radiative forcings follow CMIP6 recommendations.  Greenhouse gas concentrations of CO2, CH4, N2O, and CFC12 are explicitly prescribed and the combined effect of other greenhouse gas species is included as an effective concentration of CFC11. Time-varying historical ozone concentrations are specified using monthly three-dimensional ozone distributions. Solar forcing is applied as annual means of total solar irradiance. Tropospheric aerosol forcing is specified using version 2 of the Max-Plank Institute Aerosol Climatology Simple Plume model (MACv2-SP). Volcanic forcing is specified as a total stratospheric aerosol optical depth (SAOD) that varies with time and latitude. SAOD is derived from an offline vertical integration of extinction coefficients at 550 nm from a simplified version of the CMIP6 stratospheric aerosol data set. </t>
   </si>
   <si>
-    <t>Heat is not perfectly conserved in the atmosphere, mainly as a result of the semi-Lagrangian advection scheme.</t>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CO2</t>
+  </si>
+  <si>
+    <t>Carbon dioxide forcing</t>
+  </si>
+  <si>
+    <t>2.1.2.1 *</t>
+  </si>
+  <si>
+    <t>Provision</t>
+  </si>
+  <si>
+    <t>How this forcing agent is provided (e.g. via concentrations, emission precursors, prognostically derived, etc.)</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
+  </si>
+  <si>
+    <t>N/A: Not applicable - forcing agent is not included</t>
+  </si>
+  <si>
+    <t>M: Emissions and concentrations determined by the model state rather than externally prescribed</t>
+  </si>
+  <si>
+    <t>Y: Prescribed concentrations, distributions or time series data</t>
+  </si>
+  <si>
+    <t>E: Concentrations calculated interactively driven by prescribed emissions or precursor emissions</t>
+  </si>
+  <si>
+    <t>ES: Surface emissions (and 3-D concentrations away from the surface) derived via the model from the prescribed surface concentration</t>
+  </si>
+  <si>
+    <t>C: Fixed prescribed climatology of concentrations with no year-to-year variability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.2.2 </t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Additional information relating to the provision and implementation of this forcing agent (e.g. citations, use of non-standard datasets, explaining how multiple provisions are used, etc.).</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CH4</t>
+  </si>
+  <si>
+    <t>Methane forcing</t>
+  </si>
+  <si>
+    <t>2.1.3.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CH4.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.3.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CH4.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; N2O</t>
+  </si>
+  <si>
+    <t>Nitrous oxide forcing</t>
+  </si>
+  <si>
+    <t>2.1.4.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.N2O.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.4.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.N2O.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; Tropospheric O3</t>
+  </si>
+  <si>
+    <t>Troposheric ozone forcing</t>
+  </si>
+  <si>
+    <t>2.1.5.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.5.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; Stratospheric O3</t>
+  </si>
+  <si>
+    <t>Stratospheric ozone forcing</t>
+  </si>
+  <si>
+    <t>2.1.6.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.6.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CFC</t>
+  </si>
+  <si>
+    <t>Ozone-depleting and non-ozone-depleting fluorinated gases forcing</t>
+  </si>
+  <si>
+    <t>2.1.7.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.provision</t>
+  </si>
+  <si>
+    <t>2.1.7.2 *</t>
+  </si>
+  <si>
+    <t>Equivalence Concentration</t>
+  </si>
+  <si>
+    <t>Details of any equivalence concentrations used</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
+  </si>
+  <si>
+    <t>N/A: Not applicabale (CFCs not included or emissions and concentrations determined by the model state)</t>
+  </si>
+  <si>
+    <t>Option 1: CFCs, including CFC-12, are provided as actual concentrations</t>
+  </si>
+  <si>
+    <t>Option 2: CFC-12 is provided as actual concentrations and any other gases are provided as an equivalence concentration of CFC-11</t>
+  </si>
+  <si>
+    <t>Option 3: Ozone depleting gases, including CFC-12, are provided as an equivalence concentration of CFC-12 and all other fluorinated gases are provided as an equivalence concentration of HFC-134a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.7.3 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.8</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; SO4</t>
+  </si>
+  <si>
+    <t>SO4 aerosol forcing</t>
+  </si>
+  <si>
+    <t>2.1.8.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.SO4.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.8.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.SO4.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.9</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Black Carbon</t>
+  </si>
+  <si>
+    <t>Black carbon aerosol forcing</t>
+  </si>
+  <si>
+    <t>2.1.9.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.black_carbon.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.9.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.black_carbon.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.10</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Organic Carbon</t>
+  </si>
+  <si>
+    <t>Organic carbon aerosol forcing</t>
+  </si>
+  <si>
+    <t>2.1.10.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.organic_carbon.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.10.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.organic_carbon.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.11</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Nitrate</t>
+  </si>
+  <si>
+    <t>Nitrate forcing</t>
+  </si>
+  <si>
+    <t>2.1.11.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.nitrate.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.11.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.nitrate.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.12</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Cloud Albedo Effect</t>
+  </si>
+  <si>
+    <t>Cloud albedo effect forcing (RFaci)</t>
+  </si>
+  <si>
+    <t>2.1.12.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.provision</t>
+  </si>
+  <si>
+    <t>2.1.12.2 *</t>
+  </si>
+  <si>
+    <t>Aerosol Effect On Ice Clouds</t>
+  </si>
+  <si>
+    <t>Radiative effects of aerosols on ice clouds are represented?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.aerosol_effect_on_ice_clouds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.12.3 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.13</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Cloud Lifetime Effect</t>
+  </si>
+  <si>
+    <t>Cloud lifetime effect forcing (ERFaci)</t>
+  </si>
+  <si>
+    <t>2.1.13.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.provision</t>
+  </si>
+  <si>
+    <t>2.1.13.2 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.aerosol_effect_on_ice_clouds</t>
+  </si>
+  <si>
+    <t>2.1.13.3 *</t>
+  </si>
+  <si>
+    <t>RFaci From Sulfate Only</t>
+  </si>
+  <si>
+    <t>Radiative forcing from aerosol cloud interactions from sulfate aerosol only?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.RFaci_from_sulfate_only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.13.4 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.14</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Dust</t>
+  </si>
+  <si>
+    <t>Dust forcing</t>
+  </si>
+  <si>
+    <t>2.1.14.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.dust.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.14.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.dust.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.15</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Tropospheric Volcanic</t>
+  </si>
+  <si>
+    <t>Tropospheric volcanic forcing</t>
+  </si>
+  <si>
+    <t>2.1.15.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.provision</t>
+  </si>
+  <si>
+    <t>2.1.15.2 *</t>
+  </si>
+  <si>
+    <t>Historical Explosive Volcanic Aerosol Implementation</t>
+  </si>
+  <si>
+    <t>How explosive volcanic aerosol is implemented in historical simulations</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
+  </si>
+  <si>
+    <t>Type A: Explosive volcanic aerosol returns rapidly to zero (or near-zero) background.</t>
+  </si>
+  <si>
+    <t>Type B: Explosive volcanic aerosol returns rapidly to constant (average volcano)</t>
+  </si>
+  <si>
+    <t>Type C: Explosive volcanic aerosol returns slowly (over several decades) to constant (average volcano) background.</t>
+  </si>
+  <si>
+    <t>Type D: Explosive volcanic aerosol set to zero</t>
+  </si>
+  <si>
+    <t>Type E: Explosive volcanic aerosol set to constant (average volcano) background</t>
+  </si>
+  <si>
+    <t>2.1.15.3 *</t>
+  </si>
+  <si>
+    <t>Future Explosive Volcanic Aerosol Implementation</t>
+  </si>
+  <si>
+    <t>How explosive volcanic aerosol is implemented in future simulations</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.15.4 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.16</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Stratospheric Volcanic</t>
+  </si>
+  <si>
+    <t>Stratospheric volcanic forcing</t>
+  </si>
+  <si>
+    <t>2.1.16.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.provision</t>
+  </si>
+  <si>
+    <t>2.1.16.2 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
+  </si>
+  <si>
+    <t>2.1.16.3 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.16.4 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.17</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Sea Salt</t>
+  </si>
+  <si>
+    <t>Sea salt forcing</t>
+  </si>
+  <si>
+    <t>2.1.17.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.17.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.18</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Other --&gt; Land Use</t>
+  </si>
+  <si>
+    <t>Land use forcing</t>
+  </si>
+  <si>
+    <t>2.1.18.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.other.land_use.provision</t>
+  </si>
+  <si>
+    <t>2.1.18.2 *</t>
+  </si>
+  <si>
+    <t>Crop Change Only</t>
+  </si>
+  <si>
+    <t>Land use change represented via crop change only?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.other.land_use.crop_change_only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.18.3 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.other.land_use.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.19</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Other --&gt; Solar</t>
+  </si>
+  <si>
+    <t>Solar forcing</t>
+  </si>
+  <si>
+    <t>2.1.19.1 *</t>
+  </si>
+  <si>
+    <t>How solar forcing is provided</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.other.solar.provision</t>
+  </si>
+  <si>
+    <t>N/A: Not applicable - solar forcing is not included</t>
+  </si>
+  <si>
+    <t>irradiance: Solar irradiance forcing</t>
+  </si>
+  <si>
+    <t>proton: Proton pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>electron: Electron pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>cosmic ray: Cosmic ray pathway to solar forcing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.19.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.other.solar.additional_information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1536,14 +1528,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1590,7 +1574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1622,27 +1606,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1674,24 +1640,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1867,10 +1815,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1879,12 +1827,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1900,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1908,7 +1856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1916,7 +1864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1924,12 +1872,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1937,7 +1885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1945,7 +1893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1953,7 +1901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1961,13 +1909,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="20.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1983,12 +1931,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1997,7 +1943,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -2008,7 +1954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -2024,7 +1970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -2032,15 +1978,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -2056,7 +1998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -2064,13 +2006,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>8</v>
-      </c>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2090,12 +2028,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2139,15 +2075,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>421</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2155,28 +2091,28 @@
         <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>422</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2184,41 +2120,41 @@
         <v>37</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>423</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -2226,41 +2162,41 @@
         <v>37</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="178" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>424</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -2268,10 +2204,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -2281,10 +2217,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -2292,10 +2228,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -2303,10 +2239,10 @@
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -2314,10 +2250,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -2325,10 +2261,10 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -2336,26 +2272,26 @@
         <v>37</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="178" customHeight="1">
       <c r="B46" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -2363,10 +2299,10 @@
         <v>37</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -2374,23 +2310,23 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -2398,23 +2334,23 @@
         <v>37</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="B58" s="11" t="s">
-        <v>425</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -2422,23 +2358,23 @@
         <v>37</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="B62" s="11" t="s">
-        <v>426</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="24" customHeight="1">
@@ -2446,28 +2382,28 @@
         <v>37</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:34" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>427</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:34" ht="24" customHeight="1">
@@ -2475,71 +2411,71 @@
         <v>37</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>428</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AG75" s="6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AH75" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:34" ht="24" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:34" ht="24" customHeight="1">
@@ -2547,21 +2483,21 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
@@ -2569,57 +2505,57 @@
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="11" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AA87" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
@@ -2629,23 +2565,23 @@
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="B95" s="13" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -2653,28 +2589,28 @@
         <v>37</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="178" customHeight="1">
       <c r="B100" s="11" t="s">
-        <v>429</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -2682,28 +2618,28 @@
         <v>37</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11" t="s">
-        <v>430</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
@@ -2711,15 +2647,15 @@
         <v>37</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
@@ -2727,10 +2663,10 @@
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
@@ -2738,15 +2674,15 @@
         <v>37</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -2754,10 +2690,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -2765,23 +2701,23 @@
         <v>37</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="11" t="s">
-        <v>431</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
@@ -2789,10 +2725,10 @@
         <v>37</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
@@ -2800,23 +2736,23 @@
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="12" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="13" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
@@ -2824,28 +2760,28 @@
         <v>37</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="178" customHeight="1">
       <c r="B132" s="11" t="s">
-        <v>436</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -2853,26 +2789,26 @@
         <v>37</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="B136" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="178" customHeight="1">
       <c r="B137" s="11"/>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="A139" s="9" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
@@ -2880,26 +2816,26 @@
         <v>37</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="178" customHeight="1">
       <c r="B142" s="11"/>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
@@ -2907,26 +2843,26 @@
         <v>37</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="B146" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="178" customHeight="1">
       <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="A149" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
@@ -2934,26 +2870,26 @@
         <v>37</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="B151" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="178" customHeight="1">
       <c r="B152" s="11"/>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
@@ -2961,39 +2897,39 @@
         <v>37</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="178" customHeight="1">
       <c r="B157" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -3001,28 +2937,28 @@
         <v>37</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="B165" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="178" customHeight="1">
       <c r="B166" s="11" t="s">
-        <v>432</v>
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -3030,26 +2966,26 @@
         <v>37</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="B170" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="178" customHeight="1">
       <c r="B171" s="11"/>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="9" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -3057,26 +2993,26 @@
         <v>37</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="24" customHeight="1">
       <c r="B175" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="178" customHeight="1">
       <c r="B176" s="11"/>
     </row>
     <row r="178" spans="1:3" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="24" customHeight="1">
@@ -3084,26 +3020,26 @@
         <v>37</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="24" customHeight="1">
       <c r="B180" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="178" customHeight="1">
       <c r="B181" s="11"/>
     </row>
     <row r="183" spans="1:3" ht="24" customHeight="1">
       <c r="A183" s="9" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="24" customHeight="1">
@@ -3111,26 +3047,26 @@
         <v>37</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="24" customHeight="1">
       <c r="B185" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="178" customHeight="1">
       <c r="B186" s="11"/>
     </row>
     <row r="188" spans="1:3" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="24" customHeight="1">
@@ -3138,28 +3074,28 @@
         <v>37</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="24" customHeight="1">
       <c r="B190" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="178" customHeight="1">
       <c r="B191" s="11" t="s">
-        <v>433</v>
+        <v>219</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="A193" s="9" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
@@ -3167,28 +3103,28 @@
         <v>37</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="24" customHeight="1">
       <c r="B195" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="178" customHeight="1">
       <c r="B196" s="11" t="s">
-        <v>434</v>
+        <v>224</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
       <c r="A198" s="9" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="24" customHeight="1">
@@ -3196,26 +3132,26 @@
         <v>37</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="24" customHeight="1">
       <c r="B200" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="178" customHeight="1">
       <c r="B201" s="11"/>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="A203" s="9" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
@@ -3223,39 +3159,39 @@
         <v>37</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="24" customHeight="1">
       <c r="B205" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="178" customHeight="1">
       <c r="B206" s="11"/>
     </row>
     <row r="209" spans="1:3" ht="24" customHeight="1">
       <c r="A209" s="12" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="24" customHeight="1">
       <c r="B210" s="13" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="24" customHeight="1">
       <c r="A212" s="9" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="24" customHeight="1">
@@ -3263,39 +3199,39 @@
         <v>37</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="24" customHeight="1">
       <c r="B214" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="178" customHeight="1">
       <c r="B215" s="11"/>
     </row>
     <row r="218" spans="1:3" ht="24" customHeight="1">
       <c r="A218" s="12" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="24" customHeight="1">
       <c r="B219" s="13" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="24" customHeight="1">
       <c r="A221" s="9" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="24" customHeight="1">
@@ -3303,18 +3239,18 @@
         <v>37</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="24" customHeight="1">
       <c r="B223" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="178" customHeight="1">
       <c r="B224" s="11"/>
     </row>
   </sheetData>
@@ -3337,12 +3273,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3354,20 +3288,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -3378,10 +3312,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3391,10 +3325,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3402,52 +3336,52 @@
         <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>435</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
@@ -3458,33 +3392,33 @@
     <row r="20" spans="1:33" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
@@ -3492,50 +3426,50 @@
         <v>37</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="178" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="24" customHeight="1">
@@ -3546,33 +3480,33 @@
     <row r="34" spans="1:33" ht="24" customHeight="1">
       <c r="B34" s="11"/>
       <c r="AA34" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE34" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
@@ -3580,50 +3514,50 @@
         <v>37</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="178" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="24" customHeight="1">
@@ -3634,33 +3568,33 @@
     <row r="48" spans="1:33" ht="24" customHeight="1">
       <c r="B48" s="11"/>
       <c r="AA48" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG48" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:33" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:33" ht="24" customHeight="1">
@@ -3668,50 +3602,50 @@
         <v>37</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="24" customHeight="1">
       <c r="B52" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" ht="178" customHeight="1">
       <c r="B53" s="11"/>
     </row>
     <row r="56" spans="1:33" ht="24" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:33" ht="24" customHeight="1">
       <c r="B57" s="13" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:33" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:33" ht="24" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:33" ht="24" customHeight="1">
@@ -3722,33 +3656,33 @@
     <row r="62" spans="1:33" ht="24" customHeight="1">
       <c r="B62" s="11"/>
       <c r="AA62" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE62" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF62" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:33" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:33" ht="24" customHeight="1">
@@ -3756,50 +3690,50 @@
         <v>37</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:33" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" ht="178" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="70" spans="1:33" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:33" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:33" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:33" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:33" ht="24" customHeight="1">
@@ -3810,33 +3744,33 @@
     <row r="76" spans="1:33" ht="24" customHeight="1">
       <c r="B76" s="11"/>
       <c r="AA76" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD76" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE76" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF76" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG76" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:33" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:33" ht="24" customHeight="1">
@@ -3844,50 +3778,50 @@
         <v>37</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:33" ht="24" customHeight="1">
       <c r="B80" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" ht="178" customHeight="1">
       <c r="B81" s="11"/>
     </row>
     <row r="84" spans="1:33" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:33" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
@@ -3898,70 +3832,70 @@
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE90" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF90" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG90" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:33" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="B94" s="11"/>
       <c r="AA94" s="6" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
@@ -3969,50 +3903,50 @@
         <v>37</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" ht="178" customHeight="1">
       <c r="B99" s="11"/>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
@@ -4023,33 +3957,33 @@
     <row r="108" spans="1:33" ht="24" customHeight="1">
       <c r="B108" s="11"/>
       <c r="AA108" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB108" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC108" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD108" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE108" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF108" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG108" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -4057,50 +3991,50 @@
         <v>37</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
       <c r="B112" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" ht="178" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="116" spans="1:33" ht="24" customHeight="1">
       <c r="A116" s="12" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:33" ht="24" customHeight="1">
       <c r="B117" s="13" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:33" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:33" ht="24" customHeight="1">
       <c r="A120" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:33" ht="24" customHeight="1">
@@ -4111,33 +4045,33 @@
     <row r="122" spans="1:33" ht="24" customHeight="1">
       <c r="B122" s="11"/>
       <c r="AA122" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB122" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC122" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD122" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE122" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF122" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG122" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:33" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:33" ht="24" customHeight="1">
@@ -4145,50 +4079,50 @@
         <v>37</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:33" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" ht="178" customHeight="1">
       <c r="B127" s="11"/>
     </row>
     <row r="130" spans="1:33" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:33" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:33" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:33" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:33" ht="24" customHeight="1">
@@ -4199,33 +4133,33 @@
     <row r="136" spans="1:33" ht="24" customHeight="1">
       <c r="B136" s="11"/>
       <c r="AA136" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB136" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC136" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD136" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE136" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF136" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG136" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:33" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:33" ht="24" customHeight="1">
@@ -4233,50 +4167,50 @@
         <v>37</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:33" ht="24" customHeight="1">
       <c r="B140" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="141" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" ht="178" customHeight="1">
       <c r="B141" s="11"/>
     </row>
     <row r="144" spans="1:33" ht="24" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
       <c r="B145" s="13" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
       <c r="A148" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
@@ -4287,33 +4221,33 @@
     <row r="150" spans="1:33" ht="24" customHeight="1">
       <c r="B150" s="11"/>
       <c r="AA150" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB150" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC150" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD150" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE150" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF150" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG150" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
@@ -4321,50 +4255,50 @@
         <v>37</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
       <c r="B154" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="155" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" ht="178" customHeight="1">
       <c r="B155" s="11"/>
     </row>
     <row r="158" spans="1:33" ht="24" customHeight="1">
       <c r="A158" s="12" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
       <c r="B159" s="13" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
     </row>
     <row r="161" spans="1:33" ht="24" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" spans="1:33" ht="24" customHeight="1">
       <c r="A162" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="163" spans="1:33" ht="24" customHeight="1">
@@ -4375,44 +4309,44 @@
     <row r="164" spans="1:33" ht="24" customHeight="1">
       <c r="B164" s="11"/>
       <c r="AA164" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB164" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC164" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD164" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE164" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF164" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG164" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:33" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="167" spans="1:33" ht="24" customHeight="1">
       <c r="A167" s="14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="168" spans="1:33" ht="24" customHeight="1">
@@ -4420,10 +4354,10 @@
     </row>
     <row r="170" spans="1:33" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:33" ht="24" customHeight="1">
@@ -4431,50 +4365,50 @@
         <v>37</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:33" ht="24" customHeight="1">
       <c r="B172" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="173" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33" ht="178" customHeight="1">
       <c r="B173" s="11"/>
     </row>
     <row r="176" spans="1:33" ht="24" customHeight="1">
       <c r="A176" s="12" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:33" ht="24" customHeight="1">
       <c r="B177" s="13" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:33" ht="24" customHeight="1">
       <c r="A179" s="9" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:33" ht="24" customHeight="1">
       <c r="A180" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:33" ht="24" customHeight="1">
@@ -4485,44 +4419,44 @@
     <row r="182" spans="1:33" ht="24" customHeight="1">
       <c r="B182" s="11"/>
       <c r="AA182" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB182" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC182" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD182" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE182" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF182" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG182" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="184" spans="1:33" ht="24" customHeight="1">
       <c r="A184" s="9" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="185" spans="1:33" ht="24" customHeight="1">
       <c r="A185" s="14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="186" spans="1:33" ht="24" customHeight="1">
@@ -4530,21 +4464,21 @@
     </row>
     <row r="188" spans="1:33" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:33" ht="24" customHeight="1">
       <c r="A189" s="14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="190" spans="1:33" ht="24" customHeight="1">
@@ -4552,10 +4486,10 @@
     </row>
     <row r="192" spans="1:33" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" spans="1:33" ht="24" customHeight="1">
@@ -4563,50 +4497,50 @@
         <v>37</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
       <c r="B194" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="195" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:33" ht="178" customHeight="1">
       <c r="B195" s="11"/>
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
       <c r="A198" s="12" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="B199" s="13" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="201" spans="1:33" ht="24" customHeight="1">
       <c r="A201" s="9" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="202" spans="1:33" ht="24" customHeight="1">
       <c r="A202" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
@@ -4617,33 +4551,33 @@
     <row r="204" spans="1:33" ht="24" customHeight="1">
       <c r="B204" s="11"/>
       <c r="AA204" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB204" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC204" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD204" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE204" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF204" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG204" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206" spans="1:33" ht="24" customHeight="1">
       <c r="A206" s="9" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="207" spans="1:33" ht="24" customHeight="1">
@@ -4651,50 +4585,50 @@
         <v>37</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
       <c r="B208" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="209" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33" ht="178" customHeight="1">
       <c r="B209" s="11"/>
     </row>
     <row r="212" spans="1:33" ht="24" customHeight="1">
       <c r="A212" s="12" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
     </row>
     <row r="213" spans="1:33" ht="24" customHeight="1">
       <c r="B213" s="13" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="215" spans="1:33" ht="24" customHeight="1">
       <c r="A215" s="9" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="216" spans="1:33" ht="24" customHeight="1">
       <c r="A216" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="217" spans="1:33" ht="24" customHeight="1">
@@ -4705,113 +4639,113 @@
     <row r="218" spans="1:33" ht="24" customHeight="1">
       <c r="B218" s="11"/>
       <c r="AA218" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB218" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC218" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD218" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE218" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF218" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG218" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="220" spans="1:33" ht="24" customHeight="1">
       <c r="A220" s="9" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="221" spans="1:33" ht="24" customHeight="1">
       <c r="A221" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="222" spans="1:33" ht="24" customHeight="1">
       <c r="B222" s="11"/>
       <c r="AA222" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB222" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC222" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD222" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE222" s="6" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="AF222" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="224" spans="1:33" ht="24" customHeight="1">
       <c r="A224" s="9" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="225" spans="1:33" ht="24" customHeight="1">
       <c r="A225" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="226" spans="1:33" ht="24" customHeight="1">
       <c r="B226" s="11"/>
       <c r="AA226" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB226" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC226" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD226" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE226" s="6" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="AF226" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="228" spans="1:33" ht="24" customHeight="1">
       <c r="A228" s="9" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="229" spans="1:33" ht="24" customHeight="1">
@@ -4819,50 +4753,50 @@
         <v>37</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
     </row>
     <row r="230" spans="1:33" ht="24" customHeight="1">
       <c r="B230" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="231" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="231" spans="1:33" ht="178" customHeight="1">
       <c r="B231" s="11"/>
     </row>
     <row r="234" spans="1:33" ht="24" customHeight="1">
       <c r="A234" s="12" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="235" spans="1:33" ht="24" customHeight="1">
       <c r="B235" s="13" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="237" spans="1:33" ht="24" customHeight="1">
       <c r="A237" s="9" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="238" spans="1:33" ht="24" customHeight="1">
       <c r="A238" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="239" spans="1:33" ht="24" customHeight="1">
@@ -4873,113 +4807,113 @@
     <row r="240" spans="1:33" ht="24" customHeight="1">
       <c r="B240" s="11"/>
       <c r="AA240" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB240" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC240" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD240" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE240" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF240" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG240" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="242" spans="1:32" ht="24" customHeight="1">
       <c r="A242" s="9" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="243" spans="1:32" ht="24" customHeight="1">
       <c r="A243" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="244" spans="1:32" ht="24" customHeight="1">
       <c r="B244" s="11"/>
       <c r="AA244" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB244" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC244" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD244" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE244" s="6" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="AF244" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="246" spans="1:32" ht="24" customHeight="1">
       <c r="A246" s="9" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="247" spans="1:32" ht="24" customHeight="1">
       <c r="A247" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="248" spans="1:32" ht="24" customHeight="1">
       <c r="B248" s="11"/>
       <c r="AA248" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB248" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC248" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD248" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE248" s="6" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="AF248" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="250" spans="1:32" ht="24" customHeight="1">
       <c r="A250" s="9" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="251" spans="1:32" ht="24" customHeight="1">
@@ -4987,50 +4921,50 @@
         <v>37</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="252" spans="1:32" ht="24" customHeight="1">
       <c r="B252" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="253" spans="1:32" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="253" spans="1:32" ht="178" customHeight="1">
       <c r="B253" s="11"/>
     </row>
     <row r="256" spans="1:32" ht="24" customHeight="1">
       <c r="A256" s="12" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="1:33" ht="24" customHeight="1">
       <c r="B257" s="13" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="259" spans="1:33" ht="24" customHeight="1">
       <c r="A259" s="9" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260" spans="1:33" ht="24" customHeight="1">
       <c r="A260" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="261" spans="1:33" ht="24" customHeight="1">
@@ -5041,33 +4975,33 @@
     <row r="262" spans="1:33" ht="24" customHeight="1">
       <c r="B262" s="11"/>
       <c r="AA262" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB262" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC262" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD262" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE262" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF262" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG262" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="264" spans="1:33" ht="24" customHeight="1">
       <c r="A264" s="9" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265" spans="1:33" ht="24" customHeight="1">
@@ -5075,50 +5009,50 @@
         <v>37</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="266" spans="1:33" ht="24" customHeight="1">
       <c r="B266" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="267" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="267" spans="1:33" ht="178" customHeight="1">
       <c r="B267" s="11"/>
     </row>
     <row r="270" spans="1:33" ht="24" customHeight="1">
       <c r="A270" s="12" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="271" spans="1:33" ht="24" customHeight="1">
       <c r="B271" s="13" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="273" spans="1:33" ht="24" customHeight="1">
       <c r="A273" s="9" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="274" spans="1:33" ht="24" customHeight="1">
       <c r="A274" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="275" spans="1:33" ht="24" customHeight="1">
@@ -5129,44 +5063,44 @@
     <row r="276" spans="1:33" ht="24" customHeight="1">
       <c r="B276" s="11"/>
       <c r="AA276" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AB276" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC276" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AD276" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AE276" s="6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AF276" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AG276" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="278" spans="1:33" ht="24" customHeight="1">
       <c r="A278" s="9" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="279" spans="1:33" ht="24" customHeight="1">
       <c r="A279" s="14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="280" spans="1:33" ht="24" customHeight="1">
@@ -5174,10 +5108,10 @@
     </row>
     <row r="282" spans="1:33" ht="24" customHeight="1">
       <c r="A282" s="9" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="283" spans="1:33" ht="24" customHeight="1">
@@ -5185,50 +5119,50 @@
         <v>37</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="284" spans="1:33" ht="24" customHeight="1">
       <c r="B284" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="285" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="285" spans="1:33" ht="178" customHeight="1">
       <c r="B285" s="11"/>
     </row>
     <row r="288" spans="1:33" ht="24" customHeight="1">
       <c r="A288" s="12" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="289" spans="1:32" ht="24" customHeight="1">
       <c r="B289" s="13" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="291" spans="1:32" ht="24" customHeight="1">
       <c r="A291" s="9" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="292" spans="1:32" ht="24" customHeight="1">
       <c r="A292" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="293" spans="1:32" ht="24" customHeight="1">
@@ -5239,30 +5173,30 @@
     <row r="294" spans="1:32" ht="24" customHeight="1">
       <c r="B294" s="11"/>
       <c r="AA294" s="6" t="s">
-        <v>246</v>
+        <v>429</v>
       </c>
       <c r="AB294" s="6" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="AC294" s="6" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AD294" s="6" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="AE294" s="6" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="AF294" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="296" spans="1:32" ht="24" customHeight="1">
       <c r="A296" s="9" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="297" spans="1:32" ht="24" customHeight="1">
@@ -5270,18 +5204,18 @@
         <v>37</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
     <row r="298" spans="1:32" ht="24" customHeight="1">
       <c r="B298" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="299" spans="1:32" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="299" spans="1:32" ht="178" customHeight="1">
       <c r="B299" s="11"/>
     </row>
   </sheetData>
@@ -5369,6 +5303,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>